--- a/students.xlsx
+++ b/students.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>T/R</t>
   </si>
@@ -38,52 +38,64 @@
     <t>Sinf</t>
   </si>
   <si>
-    <t>Alimbayev Fozil</t>
-  </si>
-  <si>
-    <t>8 B</t>
-  </si>
-  <si>
-    <t>Alimov Sunnatjon</t>
-  </si>
-  <si>
-    <t>Abduhalilov Firdavs</t>
-  </si>
-  <si>
-    <t>Kamoliddinov Fazliddin</t>
-  </si>
-  <si>
-    <t>Erkinov MuhammadAyub</t>
-  </si>
-  <si>
-    <t>Xusenov Javohir</t>
-  </si>
-  <si>
-    <t>Fayzullayev Sardor</t>
-  </si>
-  <si>
-    <t>Pulatov Javohir</t>
-  </si>
-  <si>
-    <t>Mansurov Mo'minjon</t>
-  </si>
-  <si>
-    <t>Matkarimov Kamron</t>
-  </si>
-  <si>
-    <t>Muhammadjonov Abdurahmon</t>
-  </si>
-  <si>
-    <t>Musinjonov Xojiakbar</t>
-  </si>
-  <si>
-    <t>Xolmatov Muhammadali</t>
-  </si>
-  <si>
-    <t>Xusniddinov Ziyovuddin Kamoliddinovich</t>
-  </si>
-  <si>
-    <t>To'ychiyev Abubakr</t>
+    <t>RASHIDOV AZIZBEK</t>
+  </si>
+  <si>
+    <t>10-C</t>
+  </si>
+  <si>
+    <t>IZZATULLAYEV ASADBEK RAHMATILLO O’G’LI</t>
+  </si>
+  <si>
+    <t>10-B</t>
+  </si>
+  <si>
+    <t>Raxmatullayev Abduvaliy</t>
+  </si>
+  <si>
+    <t>10-D</t>
+  </si>
+  <si>
+    <t>Odiljonov Abdulxafiz</t>
+  </si>
+  <si>
+    <t>AXMEDOV AMIRXON MADAMINOVICH</t>
+  </si>
+  <si>
+    <t>10-A</t>
+  </si>
+  <si>
+    <t>Jo'raniyozov Hojiakbar</t>
+  </si>
+  <si>
+    <t>SULAYMONOV JONIBEK BAXROMOVICH</t>
+  </si>
+  <si>
+    <t>ANVAROV AZIZBEK DILMUROD O'G'LI</t>
+  </si>
+  <si>
+    <t>Mirzaulukov Sardor</t>
+  </si>
+  <si>
+    <t>INOGAMOV BAXROMJON IKROM O'G'LI</t>
+  </si>
+  <si>
+    <t>Raxmonaliyev Azizjon</t>
+  </si>
+  <si>
+    <t>Toxirjonov Azamat</t>
+  </si>
+  <si>
+    <t>Abubakirova Xadicha</t>
+  </si>
+  <si>
+    <t>Shukurullayeva Munisa</t>
+  </si>
+  <si>
+    <t>DJURAYEV SHOHRUZBEK BOBOMUROD O'G'LI</t>
+  </si>
+  <si>
+    <t>XALILJONOV ABDULLOH DILMURODOVICH</t>
   </si>
 </sst>
 </file>
@@ -111,18 +123,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -273,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +687,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,16 +711,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -711,89 +729,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -804,28 +822,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1171,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A18" sqref="A18:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1182,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:3">
+    <row r="3" ht="16.35" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1190,191 +1211,197 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:3">
+    <row r="6" ht="16.35" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="16.35" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="16.35" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="16.35" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:3">
+    <row r="11" ht="16.35" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="16.35" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="16.35" spans="1:3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" ht="16.35" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" ht="15.15" spans="1:3">
       <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" ht="16.35" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" ht="16.35" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" ht="15.15" spans="1:3">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" ht="16.35" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" ht="16.35" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8520"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>T/R</t>
   </si>
@@ -38,64 +38,58 @@
     <t>Sinf</t>
   </si>
   <si>
-    <t>RASHIDOV AZIZBEK</t>
-  </si>
-  <si>
-    <t>10-C</t>
-  </si>
-  <si>
-    <t>IZZATULLAYEV ASADBEK RAHMATILLO O’G’LI</t>
-  </si>
-  <si>
-    <t>10-B</t>
-  </si>
-  <si>
-    <t>Raxmatullayev Abduvaliy</t>
-  </si>
-  <si>
-    <t>10-D</t>
-  </si>
-  <si>
-    <t>Odiljonov Abdulxafiz</t>
-  </si>
-  <si>
-    <t>AXMEDOV AMIRXON MADAMINOVICH</t>
-  </si>
-  <si>
-    <t>10-A</t>
-  </si>
-  <si>
-    <t>Jo'raniyozov Hojiakbar</t>
-  </si>
-  <si>
-    <t>SULAYMONOV JONIBEK BAXROMOVICH</t>
-  </si>
-  <si>
-    <t>ANVAROV AZIZBEK DILMUROD O'G'LI</t>
-  </si>
-  <si>
-    <t>Mirzaulukov Sardor</t>
-  </si>
-  <si>
-    <t>INOGAMOV BAXROMJON IKROM O'G'LI</t>
-  </si>
-  <si>
-    <t>Raxmonaliyev Azizjon</t>
-  </si>
-  <si>
-    <t>Toxirjonov Azamat</t>
-  </si>
-  <si>
-    <t>Abubakirova Xadicha</t>
-  </si>
-  <si>
-    <t>Shukurullayeva Munisa</t>
-  </si>
-  <si>
-    <t>DJURAYEV SHOHRUZBEK BOBOMUROD O'G'LI</t>
-  </si>
-  <si>
-    <t>XALILJONOV ABDULLOH DILMURODOVICH</t>
+    <t>SULTONMURODOVA MUNISA SARVAR QIZI</t>
+  </si>
+  <si>
+    <t>11-C</t>
+  </si>
+  <si>
+    <t>Rahimov Azizbek</t>
+  </si>
+  <si>
+    <t>11-B</t>
+  </si>
+  <si>
+    <t>SHUKUROV CHINGIZ</t>
+  </si>
+  <si>
+    <t>BOYXONOV AZIZBEK ULUG'BEK O'G'LI</t>
+  </si>
+  <si>
+    <t>SAFAROV ABDULAZIZ ANVAR O'G'LI</t>
+  </si>
+  <si>
+    <t>RAXMATJONOV NODIRBEK MAXMUDJON O'G'LI</t>
+  </si>
+  <si>
+    <t>UMIDOVA SHABNAM UMID QIZI</t>
+  </si>
+  <si>
+    <t>Akbaraliyev Ollohberdi</t>
+  </si>
+  <si>
+    <t>MUHAMMADALIYEV MUHAMMADQODIR</t>
+  </si>
+  <si>
+    <t>RUSTAMOV BEHRUZ AZIZOVICH</t>
+  </si>
+  <si>
+    <t>ABDULLAYEV SALOHIDDIN IBROHIMJON O'G'LI</t>
+  </si>
+  <si>
+    <t>Abduhoshimov Muhammadqodir</t>
+  </si>
+  <si>
+    <t>DONOBOYEV SALIMJON</t>
+  </si>
+  <si>
+    <t>VALIYEV KAMOLIDDIN</t>
+  </si>
+  <si>
+    <t>IKROMOV ZAYNIDDIN</t>
+  </si>
+  <si>
+    <t>NO'MONJONOVA MUBINA</t>
   </si>
 </sst>
 </file>
@@ -108,7 +102,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,24 +117,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -285,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,13 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,52 +663,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,77 +726,74 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -822,32 +804,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1168,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1222,51 +1207,51 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.35" spans="1:3">
+    <row r="6" ht="15.15" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="16.35" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="16.35" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="16.35" spans="1:3">
@@ -1274,21 +1259,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:3">
+    <row r="10" ht="16.35" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="16.35" spans="1:3">
@@ -1296,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -1307,101 +1292,114 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="16.35" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="16.35" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="16.35" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="16.35" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="16.35" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" ht="15.15" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" ht="16.35" spans="1:3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" ht="16.35" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" ht="16.35" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" ht="15.15" spans="1:3">
       <c r="A22" s="3"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" ht="16.35" spans="1:3">
       <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" ht="16.35" spans="1:3">
       <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" ht="15.15" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>T/R</t>
   </si>
@@ -38,58 +38,61 @@
     <t>Sinf</t>
   </si>
   <si>
-    <t>SULTONMURODOVA MUNISA SARVAR QIZI</t>
-  </si>
-  <si>
-    <t>11-C</t>
-  </si>
-  <si>
-    <t>Rahimov Azizbek</t>
-  </si>
-  <si>
-    <t>11-B</t>
-  </si>
-  <si>
-    <t>SHUKUROV CHINGIZ</t>
-  </si>
-  <si>
-    <t>BOYXONOV AZIZBEK ULUG'BEK O'G'LI</t>
-  </si>
-  <si>
-    <t>SAFAROV ABDULAZIZ ANVAR O'G'LI</t>
-  </si>
-  <si>
-    <t>RAXMATJONOV NODIRBEK MAXMUDJON O'G'LI</t>
-  </si>
-  <si>
-    <t>UMIDOVA SHABNAM UMID QIZI</t>
-  </si>
-  <si>
-    <t>Akbaraliyev Ollohberdi</t>
-  </si>
-  <si>
-    <t>MUHAMMADALIYEV MUHAMMADQODIR</t>
-  </si>
-  <si>
-    <t>RUSTAMOV BEHRUZ AZIZOVICH</t>
-  </si>
-  <si>
-    <t>ABDULLAYEV SALOHIDDIN IBROHIMJON O'G'LI</t>
-  </si>
-  <si>
-    <t>Abduhoshimov Muhammadqodir</t>
-  </si>
-  <si>
-    <t>DONOBOYEV SALIMJON</t>
-  </si>
-  <si>
-    <t>VALIYEV KAMOLIDDIN</t>
-  </si>
-  <si>
-    <t>IKROMOV ZAYNIDDIN</t>
-  </si>
-  <si>
-    <t>NO'MONJONOVA MUBINA</t>
+    <t>ABDURASULOV MEXRIDDIN SIROJIDDIN O'G'LI</t>
+  </si>
+  <si>
+    <t>AQOIDDINOV SHAMSIDDIN NURIDDIN O'G'LI</t>
+  </si>
+  <si>
+    <t>AXADILLAYEV AZIZBEK G'OLIBOVHICH</t>
+  </si>
+  <si>
+    <t>BOTIROV UMARBEK JO'RABEK O'G'LI</t>
+  </si>
+  <si>
+    <t>HAKIMOV ABDURAHIM</t>
+  </si>
+  <si>
+    <t>ISOQOV SHUHRAT</t>
+  </si>
+  <si>
+    <t>MIRSAIDOV IBROHIM</t>
+  </si>
+  <si>
+    <t>NAZARMUHAMMADOV AZIZBEK SAXOBIDDIN O'G'LI</t>
+  </si>
+  <si>
+    <t>QAMBAROVA SHODIYONA SHAVKAT QIZI</t>
+  </si>
+  <si>
+    <t>QO'LDOSHEV HUMOYUN JAHONGIR O'G'LI</t>
+  </si>
+  <si>
+    <t>QOBILJONOV ABDULAZIZ ODILJONOVICH</t>
+  </si>
+  <si>
+    <t>RAVSHANOV MUHAMMADALI BOTIR O'G'LI</t>
+  </si>
+  <si>
+    <t>SAIDAZIMXONOV MUXAMMADYUSUFXON BAXTIYORXON O'G'LI</t>
+  </si>
+  <si>
+    <t>SUNNATOV UMAR OTABEK O'G'LI</t>
+  </si>
+  <si>
+    <t>TUMANOV BILOLIDDIN</t>
+  </si>
+  <si>
+    <t>TURAYEVA FARZONAXON ALISHER QIZI</t>
+  </si>
+  <si>
+    <t>UKTAMOV ABDUMALIK SHERBEK O'G'LI</t>
+  </si>
+  <si>
+    <t>UMIDOVA RAYYONA UMIDJON QIZI</t>
+  </si>
+  <si>
+    <t>XOLMATOVA MUBINA ULUG’BEK QIZI</t>
   </si>
 </sst>
 </file>
@@ -117,15 +120,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -273,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +292,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -520,21 +542,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -669,7 +676,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,119 +688,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -804,36 +811,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,16 +1142,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="42.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="75.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1177,229 +1166,195 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:3">
+    <row r="2" ht="16.35" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" ht="16.35" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:3">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="16.35" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:3">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="16.35" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:3">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="16.35" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:3">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="16.35" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:3">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="16.35" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="16.35" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="16.35" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="16.35" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:3">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="16.35" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="16.35" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="16.35" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="16.35" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="16.35" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" ht="16.35" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" ht="16.35" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" ht="16.35" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" ht="16.35" spans="1:3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="16.35" spans="1:3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" ht="16.35" spans="1:3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" ht="15.15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" ht="18.15" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" ht="18.15" spans="1:3">
       <c r="A22" s="3"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" ht="16.35" spans="1:3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" ht="18.15" spans="1:3">
       <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" ht="16.35" spans="1:3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" ht="18.15" spans="1:3">
       <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="15.15" spans="1:3">
       <c r="A25" s="3"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" ht="15.15" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" ht="15.15" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
